--- a/finance/shede.xlsx
+++ b/finance/shede.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\stockProject\finance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+  <si>
+    <t>CN</t>
+  </si>
   <si>
     <t>2011一季报</t>
   </si>
@@ -197,17 +205,74 @@
   </si>
   <si>
     <t>weightedRoe</t>
+  </si>
+  <si>
+    <t>资产负债率</t>
+  </si>
+  <si>
+    <t>每股收益-基本</t>
+  </si>
+  <si>
+    <t>每股资本公积金</t>
+  </si>
+  <si>
+    <t>每股收益-稀释</t>
+  </si>
+  <si>
+    <t>EV/EBIT企业价值倍数</t>
+  </si>
+  <si>
+    <t>EV/EBITDA</t>
+  </si>
+  <si>
+    <t>销售毛利率</t>
+  </si>
+  <si>
+    <t>每股净资产</t>
+  </si>
+  <si>
+    <t>净利润</t>
+  </si>
+  <si>
+    <t>净利润率</t>
+  </si>
+  <si>
+    <t>净利润同比增长率</t>
+  </si>
+  <si>
+    <t>每股经营性现金流</t>
+  </si>
+  <si>
+    <t>营业收入</t>
+  </si>
+  <si>
+    <t>营业收入同比增长率</t>
+  </si>
+  <si>
+    <t>市净率</t>
+  </si>
+  <si>
+    <t>市盈率</t>
+  </si>
+  <si>
+    <t>销售净利率</t>
+  </si>
+  <si>
+    <t>每股未分配利润</t>
+  </si>
+  <si>
+    <t>净资产收益率-加全</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -215,8 +280,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -262,15 +334,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -312,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +424,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,6 +459,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,14 +635,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,2497 +775,2559 @@
       <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2">
-        <v>38.4179</v>
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
       </c>
       <c r="C2">
-        <v>36.0223</v>
+        <v>38.417900000000003</v>
       </c>
       <c r="D2">
-        <v>36.7099</v>
+        <v>36.022300000000001</v>
       </c>
       <c r="E2">
-        <v>37.873</v>
+        <v>36.709899999999998</v>
       </c>
       <c r="F2">
-        <v>37.8445</v>
+        <v>37.872999999999998</v>
       </c>
       <c r="G2">
-        <v>35.1632</v>
+        <v>37.844499999999996</v>
       </c>
       <c r="H2">
+        <v>35.163200000000003</v>
+      </c>
+      <c r="I2">
         <v>32.6997</v>
       </c>
-      <c r="I2">
-        <v>32.4826</v>
-      </c>
       <c r="J2">
-        <v>28.1393</v>
+        <v>32.482599999999998</v>
       </c>
       <c r="K2">
-        <v>34.014</v>
+        <v>28.139299999999999</v>
       </c>
       <c r="L2">
+        <v>34.014000000000003</v>
+      </c>
+      <c r="M2">
         <v>28.2041</v>
       </c>
-      <c r="M2">
-        <v>34.3053</v>
-      </c>
       <c r="N2">
-        <v>34.7083</v>
+        <v>34.305300000000003</v>
       </c>
       <c r="O2">
+        <v>34.708300000000001</v>
+      </c>
+      <c r="P2">
         <v>37.9221</v>
       </c>
-      <c r="P2">
-        <v>35.6689</v>
-      </c>
       <c r="Q2">
-        <v>38.963</v>
+        <v>35.668900000000001</v>
       </c>
       <c r="R2">
-        <v>41.1836</v>
+        <v>38.963000000000001</v>
       </c>
       <c r="S2">
+        <v>41.183599999999998</v>
+      </c>
+      <c r="T2">
         <v>41.7746</v>
       </c>
-      <c r="T2">
-        <v>40.5912</v>
-      </c>
       <c r="U2">
-        <v>40.2914</v>
+        <v>40.591200000000001</v>
       </c>
       <c r="V2">
-        <v>40.8854</v>
+        <v>40.291400000000003</v>
       </c>
       <c r="W2">
+        <v>40.885399999999997</v>
+      </c>
+      <c r="X2">
         <v>38.4848</v>
       </c>
-      <c r="X2">
-        <v>39.294</v>
-      </c>
       <c r="Y2">
-        <v>41.3552</v>
+        <v>39.293999999999997</v>
       </c>
       <c r="Z2">
-        <v>41.2323</v>
+        <v>41.355200000000004</v>
       </c>
       <c r="AA2">
-        <v>43.9035</v>
+        <v>41.232300000000002</v>
       </c>
       <c r="AB2">
+        <v>43.903500000000001</v>
+      </c>
+      <c r="AC2">
         <v>39.9452</v>
       </c>
-      <c r="AC2">
-        <v>43.5007</v>
-      </c>
       <c r="AD2">
-        <v>42.089</v>
+        <v>43.500700000000002</v>
       </c>
       <c r="AE2">
-        <v>41.3629</v>
+        <v>42.088999999999999</v>
       </c>
       <c r="AF2">
-        <v>38.0624</v>
+        <v>41.362900000000003</v>
       </c>
       <c r="AG2">
+        <v>38.062399999999997</v>
+      </c>
+      <c r="AH2">
         <v>43.9375</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>43.6601</v>
       </c>
-      <c r="AI2">
-        <v>45.0463</v>
-      </c>
       <c r="AJ2">
-        <v>43.9748</v>
+        <v>45.046300000000002</v>
       </c>
       <c r="AK2">
-        <v>43.9031</v>
+        <v>43.974800000000002</v>
       </c>
       <c r="AL2">
-        <v>42.2721</v>
+        <v>43.903100000000002</v>
       </c>
       <c r="AM2">
-        <v>44.457</v>
+        <v>42.272100000000002</v>
       </c>
       <c r="AN2">
-        <v>41.7414</v>
+        <v>44.457000000000001</v>
       </c>
       <c r="AO2">
-        <v>41.4112</v>
+        <v>41.741399999999999</v>
       </c>
       <c r="AP2">
-        <v>37.9926</v>
+        <v>41.411200000000001</v>
       </c>
       <c r="AQ2">
-        <v>38.6377</v>
+        <v>37.992600000000003</v>
+      </c>
+      <c r="AR2">
+        <v>38.637700000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3">
         <v>0.1081</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2792</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1767</v>
       </c>
-      <c r="E3">
-        <v>0.5787</v>
-      </c>
       <c r="F3">
-        <v>0.3311</v>
+        <v>0.57869999999999999</v>
       </c>
       <c r="G3">
-        <v>0.7546</v>
+        <v>0.33110000000000001</v>
       </c>
       <c r="H3">
-        <v>0.5513</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="I3">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="J3">
         <v>1.0965</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.1706</v>
       </c>
-      <c r="K3">
-        <v>0.0222</v>
-      </c>
       <c r="L3">
-        <v>0.0838</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="M3">
-        <v>0.0349</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="N3">
-        <v>0.0238</v>
+        <v>3.49E-2</v>
       </c>
       <c r="O3">
-        <v>0.018</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="P3">
-        <v>0.031</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q3">
-        <v>0.0397</v>
+        <v>3.1E-2</v>
       </c>
       <c r="R3">
-        <v>0.013</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="S3">
-        <v>0.0117</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="T3">
+        <v>1.17E-2</v>
+      </c>
+      <c r="U3">
         <v>0.02</v>
       </c>
-      <c r="U3">
-        <v>0.0211</v>
-      </c>
       <c r="V3">
-        <v>0.0361</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="W3">
-        <v>0.1625</v>
+        <v>3.61E-2</v>
       </c>
       <c r="X3">
-        <v>0.0687</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="Y3">
-        <v>0.2378</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="Z3">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="AA3">
         <v>0.1211</v>
       </c>
-      <c r="AA3">
-        <v>0.2831</v>
-      </c>
       <c r="AB3">
-        <v>0.1848</v>
+        <v>0.28310000000000002</v>
       </c>
       <c r="AC3">
-        <v>0.4257</v>
+        <v>0.18479999999999999</v>
       </c>
       <c r="AD3">
-        <v>0.2453</v>
+        <v>0.42570000000000002</v>
       </c>
       <c r="AE3">
-        <v>0.8126</v>
+        <v>0.24529999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.4917</v>
+        <v>0.81259999999999999</v>
       </c>
       <c r="AG3">
+        <v>0.49170000000000003</v>
+      </c>
+      <c r="AH3">
         <v>1.0219</v>
       </c>
-      <c r="AH3">
-        <v>0.3013</v>
-      </c>
       <c r="AI3">
-        <v>0.9075</v>
+        <v>0.30130000000000001</v>
       </c>
       <c r="AJ3">
-        <v>0.5556</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="AK3">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AL3">
         <v>1.5218</v>
       </c>
-      <c r="AL3">
-        <v>0.0801</v>
-      </c>
       <c r="AM3">
-        <v>0.9346</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="AN3">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="AO3">
         <v>0.4929</v>
       </c>
-      <c r="AO3">
-        <v>1.7452</v>
-      </c>
       <c r="AP3">
-        <v>0.9076</v>
+        <v>1.7452000000000001</v>
       </c>
       <c r="AQ3">
-        <v>2.2123</v>
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="AR3">
+        <v>2.2122999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4">
-        <v>2.3698</v>
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
       </c>
       <c r="C4">
-        <v>2.3698</v>
+        <v>2.3698000000000001</v>
       </c>
       <c r="D4">
-        <v>2.3698</v>
+        <v>2.3698000000000001</v>
       </c>
       <c r="E4">
-        <v>2.3697</v>
+        <v>2.3698000000000001</v>
       </c>
       <c r="F4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="G4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="H4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="I4">
-        <v>2.3698</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="J4">
-        <v>2.3698</v>
+        <v>2.3698000000000001</v>
       </c>
       <c r="K4">
-        <v>2.3698</v>
+        <v>2.3698000000000001</v>
       </c>
       <c r="L4">
-        <v>2.3698</v>
+        <v>2.3698000000000001</v>
       </c>
       <c r="M4">
-        <v>2.3697</v>
+        <v>2.3698000000000001</v>
       </c>
       <c r="N4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="O4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="P4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="Q4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="R4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="S4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="T4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="U4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="V4">
-        <v>2.3697</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="W4">
-        <v>2.3776</v>
+        <v>2.3696999999999999</v>
       </c>
       <c r="X4">
-        <v>2.3776</v>
+        <v>2.3776000000000002</v>
       </c>
       <c r="Y4">
-        <v>2.3776</v>
+        <v>2.3776000000000002</v>
       </c>
       <c r="Z4">
-        <v>2.3776</v>
+        <v>2.3776000000000002</v>
       </c>
       <c r="AA4">
+        <v>2.3776000000000002</v>
+      </c>
+      <c r="AB4">
         <v>2.4779</v>
       </c>
-      <c r="AB4">
-        <v>2.3776</v>
-      </c>
       <c r="AC4">
-        <v>2.4945</v>
+        <v>2.3776000000000002</v>
       </c>
       <c r="AD4">
-        <v>2.4945</v>
+        <v>2.4944999999999999</v>
       </c>
       <c r="AE4">
-        <v>2.4945</v>
+        <v>2.4944999999999999</v>
       </c>
       <c r="AF4">
-        <v>2.4945</v>
+        <v>2.4944999999999999</v>
       </c>
       <c r="AG4">
-        <v>2.5074</v>
+        <v>2.4944999999999999</v>
       </c>
       <c r="AH4">
+        <v>2.5074000000000001</v>
+      </c>
+      <c r="AI4">
         <v>2.5419</v>
       </c>
-      <c r="AI4">
-        <v>2.611</v>
-      </c>
       <c r="AJ4">
-        <v>2.5765</v>
+        <v>2.6110000000000002</v>
       </c>
       <c r="AK4">
-        <v>2.6011</v>
+        <v>2.5764999999999998</v>
       </c>
       <c r="AL4">
-        <v>2.6272</v>
+        <v>2.6011000000000002</v>
       </c>
       <c r="AM4">
-        <v>2.6281</v>
+        <v>2.6272000000000002</v>
       </c>
       <c r="AN4">
+        <v>2.6280999999999999</v>
+      </c>
+      <c r="AO4">
         <v>2.6456</v>
       </c>
-      <c r="AO4">
-        <v>2.6476</v>
-      </c>
       <c r="AP4">
-        <v>2.6573</v>
+        <v>2.6476000000000002</v>
       </c>
       <c r="AQ4">
-        <v>2.6522</v>
+        <v>2.6573000000000002</v>
+      </c>
+      <c r="AR4">
+        <v>2.6522000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
         <v>0.1081</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.2792</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.1767</v>
       </c>
-      <c r="E5">
-        <v>0.5787</v>
-      </c>
       <c r="F5">
-        <v>0.3311</v>
+        <v>0.57869999999999999</v>
       </c>
       <c r="G5">
-        <v>0.7546</v>
+        <v>0.33110000000000001</v>
       </c>
       <c r="H5">
-        <v>0.5513</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="I5">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="J5">
         <v>1.0965</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.1706</v>
       </c>
-      <c r="K5">
-        <v>0.0222</v>
-      </c>
       <c r="L5">
-        <v>0.0838</v>
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="M5">
-        <v>0.0349</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="N5">
-        <v>0.0238</v>
+        <v>3.49E-2</v>
       </c>
       <c r="O5">
-        <v>0.018</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="P5">
-        <v>0.031</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q5">
-        <v>0.0397</v>
+        <v>3.1E-2</v>
       </c>
       <c r="R5">
-        <v>0.013</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="S5">
-        <v>0.0117</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="T5">
+        <v>1.17E-2</v>
+      </c>
+      <c r="U5">
         <v>0.02</v>
       </c>
-      <c r="U5">
-        <v>0.0211</v>
-      </c>
       <c r="V5">
-        <v>0.0361</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="W5">
-        <v>0.1625</v>
+        <v>3.61E-2</v>
       </c>
       <c r="X5">
-        <v>0.0687</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="Y5">
-        <v>0.2378</v>
+        <v>6.8699999999999997E-2</v>
       </c>
       <c r="Z5">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="AA5">
         <v>0.1211</v>
       </c>
-      <c r="AA5">
-        <v>0.2831</v>
-      </c>
       <c r="AB5">
-        <v>0.1848</v>
+        <v>0.28310000000000002</v>
       </c>
       <c r="AC5">
-        <v>0.4257</v>
+        <v>0.18479999999999999</v>
       </c>
       <c r="AD5">
-        <v>0.2453</v>
+        <v>0.42570000000000002</v>
       </c>
       <c r="AE5">
-        <v>0.8126</v>
+        <v>0.24529999999999999</v>
       </c>
       <c r="AF5">
-        <v>0.4917</v>
+        <v>0.81259999999999999</v>
       </c>
       <c r="AG5">
+        <v>0.49170000000000003</v>
+      </c>
+      <c r="AH5">
         <v>1.0219</v>
       </c>
-      <c r="AH5">
-        <v>0.3013</v>
-      </c>
       <c r="AI5">
-        <v>0.9075</v>
+        <v>0.30130000000000001</v>
       </c>
       <c r="AJ5">
-        <v>0.5556</v>
+        <v>0.90749999999999997</v>
       </c>
       <c r="AK5">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="AL5">
         <v>1.5218</v>
       </c>
-      <c r="AL5">
-        <v>0.0801</v>
-      </c>
       <c r="AM5">
-        <v>0.9346</v>
+        <v>8.0100000000000005E-2</v>
       </c>
       <c r="AN5">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="AO5">
         <v>0.4929</v>
       </c>
-      <c r="AO5">
-        <v>1.7452</v>
-      </c>
       <c r="AP5">
-        <v>0.9076</v>
+        <v>1.7452000000000001</v>
       </c>
       <c r="AQ5">
-        <v>2.2123</v>
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="AR5">
+        <v>2.2122999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6">
         <v>141.0587155372645</v>
       </c>
-      <c r="C6">
-        <v>49.44845415617414</v>
-      </c>
       <c r="D6">
-        <v>89.98262248240817</v>
+        <v>49.448454156174137</v>
       </c>
       <c r="E6">
+        <v>89.982622482408175</v>
+      </c>
+      <c r="F6">
         <v>23.26782140123785</v>
       </c>
-      <c r="F6">
-        <v>65.57467278724938</v>
-      </c>
       <c r="G6">
-        <v>33.40717552243237</v>
+        <v>65.574672787249384</v>
       </c>
       <c r="H6">
-        <v>51.35342745909039</v>
+        <v>33.407175522432368</v>
       </c>
       <c r="I6">
-        <v>20.23991693061476</v>
+        <v>51.353427459090391</v>
       </c>
       <c r="J6">
-        <v>85.11010904767653</v>
+        <v>20.239916930614761</v>
       </c>
       <c r="K6">
-        <v>147.0751221337281</v>
+        <v>85.110109047676531</v>
       </c>
       <c r="L6">
-        <v>92.80707691904777</v>
+        <v>147.07512213372809</v>
       </c>
       <c r="M6">
-        <v>90.40486285716852</v>
+        <v>92.807076919047773</v>
       </c>
       <c r="N6">
+        <v>90.404862857168524</v>
+      </c>
+      <c r="O6">
         <v>235.8592475094342</v>
       </c>
-      <c r="O6">
-        <v>184.3331025715919</v>
-      </c>
       <c r="P6">
-        <v>131.7285279822407</v>
+        <v>184.33310257159189</v>
       </c>
       <c r="Q6">
+        <v>131.72852798224071</v>
+      </c>
+      <c r="R6">
         <v>115.0971571868434</v>
       </c>
-      <c r="R6">
-        <v>330.2719595843294</v>
-      </c>
       <c r="S6">
-        <v>120.77051604919</v>
+        <v>330.27195958432941</v>
       </c>
       <c r="T6">
-        <v>280.1750465384325</v>
+        <v>120.77051604918999</v>
       </c>
       <c r="U6">
+        <v>280.17504653843253</v>
+      </c>
+      <c r="V6">
         <v>145.1040284760754</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>212.3610741788404</v>
       </c>
-      <c r="W6">
-        <v>71.72708929912278</v>
-      </c>
       <c r="X6">
-        <v>138.8485150450921</v>
+        <v>71.727089299122781</v>
       </c>
       <c r="Y6">
-        <v>44.82130005030457</v>
+        <v>138.84851504509211</v>
       </c>
       <c r="Z6">
+        <v>44.821300050304572</v>
+      </c>
+      <c r="AA6">
         <v>135.044745957499</v>
       </c>
-      <c r="AA6">
-        <v>81.32714184701506</v>
-      </c>
       <c r="AB6">
-        <v>80.66814623122656</v>
+        <v>81.327141847015056</v>
       </c>
       <c r="AC6">
-        <v>85.71236401588392</v>
+        <v>80.668146231226558</v>
       </c>
       <c r="AD6">
+        <v>85.712364015883921</v>
+      </c>
+      <c r="AE6">
         <v>134.9519773138768</v>
       </c>
-      <c r="AE6">
-        <v>30.99285432146811</v>
-      </c>
       <c r="AF6">
-        <v>59.28738725106247</v>
+        <v>30.992854321468108</v>
       </c>
       <c r="AG6">
-        <v>21.5867208125126</v>
+        <v>59.287387251062469</v>
       </c>
       <c r="AH6">
-        <v>79.77033904522034</v>
+        <v>21.586720812512599</v>
       </c>
       <c r="AI6">
-        <v>26.6749966563387</v>
+        <v>79.770339045220339</v>
       </c>
       <c r="AJ6">
-        <v>40.57094625143423</v>
+        <v>26.674996656338699</v>
       </c>
       <c r="AK6">
-        <v>16.98674340934422</v>
+        <v>40.570946251434229</v>
       </c>
       <c r="AL6">
-        <v>181.5606523912288</v>
+        <v>16.986743409344221</v>
       </c>
       <c r="AM6">
-        <v>26.83889214874056</v>
+        <v>181.56065239122881</v>
       </c>
       <c r="AN6">
-        <v>61.19658925901724</v>
+        <v>26.838892148740559</v>
       </c>
       <c r="AO6">
-        <v>38.25198651854623</v>
+        <v>61.196589259017237</v>
       </c>
       <c r="AP6">
-        <v>74.07128709224293</v>
+        <v>38.251986518546232</v>
       </c>
       <c r="AQ6">
-        <v>76.64898094177538</v>
+        <v>74.071287092242926</v>
+      </c>
+      <c r="AR6">
+        <v>76.648980941775378</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7">
         <v>141.0587155372645</v>
       </c>
-      <c r="C7">
-        <v>49.44845415617414</v>
-      </c>
       <c r="D7">
-        <v>66.33290709054123</v>
+        <v>49.448454156174137</v>
       </c>
       <c r="E7">
+        <v>66.332907090541227</v>
+      </c>
+      <c r="F7">
         <v>19.13927811815303</v>
       </c>
-      <c r="F7">
-        <v>65.57467278724938</v>
-      </c>
       <c r="G7">
-        <v>33.40717552243237</v>
+        <v>65.574672787249384</v>
       </c>
       <c r="H7">
-        <v>45.81080538447655</v>
+        <v>33.407175522432368</v>
       </c>
       <c r="I7">
+        <v>45.810805384476552</v>
+      </c>
+      <c r="J7">
         <v>18.0681075975554</v>
       </c>
-      <c r="J7">
-        <v>85.11010904767653</v>
-      </c>
       <c r="K7">
-        <v>147.0751221337281</v>
+        <v>85.110109047676531</v>
       </c>
       <c r="L7">
-        <v>60.51898839772043</v>
+        <v>147.07512213372809</v>
       </c>
       <c r="M7">
-        <v>45.75473407661961</v>
+        <v>60.518988397720427</v>
       </c>
       <c r="N7">
+        <v>45.754734076619613</v>
+      </c>
+      <c r="O7">
         <v>235.8592475094342</v>
       </c>
-      <c r="O7">
-        <v>184.3331025715919</v>
-      </c>
       <c r="P7">
-        <v>73.42212212254121</v>
+        <v>184.33310257159189</v>
       </c>
       <c r="Q7">
-        <v>62.46499980721333</v>
+        <v>73.422122122541211</v>
       </c>
       <c r="R7">
-        <v>330.2719595843294</v>
+        <v>62.464999807213331</v>
       </c>
       <c r="S7">
-        <v>120.77051604919</v>
+        <v>330.27195958432941</v>
       </c>
       <c r="T7">
-        <v>157.2604518898079</v>
+        <v>120.77051604918999</v>
       </c>
       <c r="U7">
-        <v>76.57516625292554</v>
+        <v>157.26045188980791</v>
       </c>
       <c r="V7">
+        <v>76.575166252925541</v>
+      </c>
+      <c r="W7">
         <v>212.3610741788404</v>
       </c>
-      <c r="W7">
-        <v>71.72708929912278</v>
-      </c>
       <c r="X7">
+        <v>71.727089299122781</v>
+      </c>
+      <c r="Y7">
         <v>103.1363927598245</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>36.06872552215237</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>135.044745957499</v>
       </c>
-      <c r="AA7">
-        <v>81.32714184701506</v>
-      </c>
       <c r="AB7">
-        <v>67.55186065282427</v>
+        <v>81.327141847015056</v>
       </c>
       <c r="AC7">
-        <v>69.05761310877556</v>
+        <v>67.551860652824274</v>
       </c>
       <c r="AD7">
+        <v>69.057613108775556</v>
+      </c>
+      <c r="AE7">
         <v>134.9519773138768</v>
       </c>
-      <c r="AE7">
-        <v>30.99285432146811</v>
-      </c>
       <c r="AF7">
-        <v>52.33691093875333</v>
+        <v>30.992854321468108</v>
       </c>
       <c r="AG7">
-        <v>18.76010041167323</v>
+        <v>52.336910938753327</v>
       </c>
       <c r="AH7">
-        <v>79.77033904522034</v>
+        <v>18.760100411673228</v>
       </c>
       <c r="AI7">
-        <v>26.6749966563387</v>
+        <v>79.770339045220339</v>
       </c>
       <c r="AJ7">
+        <v>26.674996656338699</v>
+      </c>
+      <c r="AK7">
         <v>36.28410886608625</v>
       </c>
-      <c r="AK7">
-        <v>15.53518868103692</v>
-      </c>
       <c r="AL7">
-        <v>181.5606523912288</v>
+        <v>15.535188681036921</v>
       </c>
       <c r="AM7">
-        <v>26.83889214874056</v>
+        <v>181.56065239122881</v>
       </c>
       <c r="AN7">
-        <v>51.64176376979975</v>
+        <v>26.838892148740559</v>
       </c>
       <c r="AO7">
-        <v>34.08559049652008</v>
+        <v>51.641763769799752</v>
       </c>
       <c r="AP7">
-        <v>74.07128709224293</v>
+        <v>34.085590496520084</v>
       </c>
       <c r="AQ7">
-        <v>72.24863280017267</v>
+        <v>74.071287092242926</v>
+      </c>
+      <c r="AR7">
+        <v>72.248632800172672</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8">
-        <v>54.8595</v>
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>51.2554</v>
+        <v>54.859499999999997</v>
       </c>
       <c r="D8">
-        <v>51.2141</v>
+        <v>51.255400000000002</v>
       </c>
       <c r="E8">
-        <v>53.6086</v>
+        <v>51.214100000000002</v>
       </c>
       <c r="F8">
-        <v>59.2126</v>
+        <v>53.608600000000003</v>
       </c>
       <c r="G8">
-        <v>61.3312</v>
+        <v>59.212600000000002</v>
       </c>
       <c r="H8">
-        <v>61.1744</v>
+        <v>61.331200000000003</v>
       </c>
       <c r="I8">
-        <v>60.3259</v>
+        <v>61.174399999999999</v>
       </c>
       <c r="J8">
-        <v>70.23690000000001</v>
+        <v>60.325899999999997</v>
       </c>
       <c r="K8">
-        <v>63.8394</v>
+        <v>70.236900000000006</v>
       </c>
       <c r="L8">
+        <v>63.839399999999998</v>
+      </c>
+      <c r="M8">
         <v>66.2089</v>
       </c>
-      <c r="M8">
-        <v>60.4083</v>
-      </c>
       <c r="N8">
-        <v>49.3011</v>
+        <v>60.408299999999997</v>
       </c>
       <c r="O8">
-        <v>49.3796</v>
+        <v>49.301099999999998</v>
       </c>
       <c r="P8">
+        <v>49.379600000000003</v>
+      </c>
+      <c r="Q8">
         <v>49.1922</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>50.6586</v>
       </c>
-      <c r="R8">
-        <v>49.3303</v>
-      </c>
       <c r="S8">
-        <v>52.3519</v>
+        <v>49.330300000000001</v>
       </c>
       <c r="T8">
-        <v>51.6503</v>
+        <v>52.351900000000001</v>
       </c>
       <c r="U8">
-        <v>50.4369</v>
+        <v>51.650300000000001</v>
       </c>
       <c r="V8">
-        <v>46.4677</v>
+        <v>50.436900000000001</v>
       </c>
       <c r="W8">
-        <v>51.9067</v>
+        <v>46.467700000000001</v>
       </c>
       <c r="X8">
-        <v>49.899</v>
+        <v>51.906700000000001</v>
       </c>
       <c r="Y8">
-        <v>64.1576</v>
+        <v>49.899000000000001</v>
       </c>
       <c r="Z8">
-        <v>64.971</v>
+        <v>64.157600000000002</v>
       </c>
       <c r="AA8">
-        <v>75.33759999999999</v>
+        <v>64.971000000000004</v>
       </c>
       <c r="AB8">
-        <v>73.5282</v>
+        <v>75.337599999999995</v>
       </c>
       <c r="AC8">
-        <v>74.6163</v>
+        <v>73.528199999999998</v>
       </c>
       <c r="AD8">
-        <v>69.46380000000001</v>
+        <v>74.616299999999995</v>
       </c>
       <c r="AE8">
-        <v>72.1198</v>
+        <v>69.463800000000006</v>
       </c>
       <c r="AF8">
-        <v>69.42010000000001</v>
+        <v>72.119799999999998</v>
       </c>
       <c r="AG8">
-        <v>72.6253</v>
+        <v>69.420100000000005</v>
       </c>
       <c r="AH8">
-        <v>74.7556</v>
+        <v>72.625299999999996</v>
       </c>
       <c r="AI8">
-        <v>75.5701</v>
+        <v>74.755600000000001</v>
       </c>
       <c r="AJ8">
-        <v>74.52249999999999</v>
+        <v>75.570099999999996</v>
       </c>
       <c r="AK8">
-        <v>76.2047</v>
+        <v>74.522499999999994</v>
       </c>
       <c r="AL8">
-        <v>72.3574</v>
+        <v>76.204700000000003</v>
       </c>
       <c r="AM8">
-        <v>76.5314</v>
+        <v>72.357399999999998</v>
       </c>
       <c r="AN8">
-        <v>75.0014</v>
+        <v>76.531400000000005</v>
       </c>
       <c r="AO8">
+        <v>75.001400000000004</v>
+      </c>
+      <c r="AP8">
         <v>75.866</v>
       </c>
-      <c r="AP8">
-        <v>77.60169999999999</v>
-      </c>
       <c r="AQ8">
-        <v>78.7842</v>
+        <v>77.601699999999994</v>
+      </c>
+      <c r="AR8">
+        <v>78.784199999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
         <v>5.61</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5.72</v>
       </c>
-      <c r="D9">
-        <v>5.674</v>
-      </c>
       <c r="E9">
+        <v>5.6740000000000004</v>
+      </c>
+      <c r="F9">
         <v>6.016</v>
       </c>
-      <c r="F9">
-        <v>6.347</v>
-      </c>
       <c r="G9">
-        <v>6.5906</v>
+        <v>6.3470000000000004</v>
       </c>
       <c r="H9">
-        <v>6.5673</v>
+        <v>6.5906000000000002</v>
       </c>
       <c r="I9">
-        <v>6.9325</v>
+        <v>6.5673000000000004</v>
       </c>
       <c r="J9">
-        <v>7.1031</v>
+        <v>6.9325000000000001</v>
       </c>
       <c r="K9">
-        <v>6.6247</v>
+        <v>7.1031000000000004</v>
       </c>
       <c r="L9">
-        <v>7.0163</v>
+        <v>6.6246999999999998</v>
       </c>
       <c r="M9">
-        <v>6.6374</v>
+        <v>7.0163000000000002</v>
       </c>
       <c r="N9">
-        <v>6.6613</v>
+        <v>6.6374000000000004</v>
       </c>
       <c r="O9">
-        <v>6.6355</v>
+        <v>6.6612999999999998</v>
       </c>
       <c r="P9">
-        <v>6.6685</v>
+        <v>6.6355000000000004</v>
       </c>
       <c r="Q9">
-        <v>6.6571</v>
+        <v>6.6684999999999999</v>
       </c>
       <c r="R9">
-        <v>6.6701</v>
+        <v>6.6570999999999998</v>
       </c>
       <c r="S9">
-        <v>6.6488</v>
+        <v>6.6700999999999997</v>
       </c>
       <c r="T9">
-        <v>6.6771</v>
+        <v>6.6487999999999996</v>
       </c>
       <c r="U9">
-        <v>6.6583</v>
+        <v>6.6771000000000003</v>
       </c>
       <c r="V9">
-        <v>6.6944</v>
+        <v>6.6582999999999997</v>
       </c>
       <c r="W9">
+        <v>6.6943999999999999</v>
+      </c>
+      <c r="X9">
         <v>6.8186</v>
       </c>
-      <c r="X9">
-        <v>6.7349</v>
-      </c>
       <c r="Y9">
-        <v>6.8939</v>
+        <v>6.7348999999999997</v>
       </c>
       <c r="Z9">
-        <v>7.015</v>
+        <v>6.8939000000000004</v>
       </c>
       <c r="AA9">
-        <v>7.205</v>
+        <v>7.0149999999999997</v>
       </c>
       <c r="AB9">
-        <v>7.0067</v>
+        <v>7.2050000000000001</v>
       </c>
       <c r="AC9">
-        <v>7.3643</v>
+        <v>7.0067000000000004</v>
       </c>
       <c r="AD9">
-        <v>7.6096</v>
+        <v>7.3643000000000001</v>
       </c>
       <c r="AE9">
-        <v>7.2414</v>
+        <v>7.6096000000000004</v>
       </c>
       <c r="AF9">
-        <v>7.8559</v>
+        <v>7.2413999999999996</v>
       </c>
       <c r="AG9">
-        <v>7.4593</v>
+        <v>7.8559000000000001</v>
       </c>
       <c r="AH9">
-        <v>7.7952</v>
+        <v>7.4592999999999998</v>
       </c>
       <c r="AI9">
-        <v>8.362299999999999</v>
+        <v>7.7952000000000004</v>
       </c>
       <c r="AJ9">
+        <v>8.3622999999999994</v>
+      </c>
+      <c r="AK9">
         <v>7.9794</v>
       </c>
-      <c r="AK9">
-        <v>9.0245</v>
-      </c>
       <c r="AL9">
-        <v>9.129899999999999</v>
+        <v>9.0244999999999997</v>
       </c>
       <c r="AM9">
-        <v>9.8261</v>
+        <v>9.1298999999999992</v>
       </c>
       <c r="AN9">
-        <v>9.556800000000001</v>
+        <v>9.8261000000000003</v>
       </c>
       <c r="AO9">
+        <v>9.5568000000000008</v>
+      </c>
+      <c r="AP9">
         <v>10.6496</v>
       </c>
-      <c r="AP9">
-        <v>11.5574</v>
-      </c>
       <c r="AQ9">
+        <v>11.557399999999999</v>
+      </c>
+      <c r="AR9">
         <v>12.6173</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
         <v>36454508.93</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>94176423</v>
       </c>
-      <c r="D10">
-        <v>59609721.12</v>
-      </c>
       <c r="E10">
+        <v>59609721.119999997</v>
+      </c>
+      <c r="F10">
         <v>195208674.06</v>
       </c>
-      <c r="F10">
-        <v>111683989.29</v>
-      </c>
       <c r="G10">
+        <v>111683989.29000001</v>
+      </c>
+      <c r="H10">
         <v>254524269.97</v>
       </c>
-      <c r="H10">
-        <v>185947166.3</v>
-      </c>
       <c r="I10">
-        <v>369857619.98</v>
+        <v>185947166.30000001</v>
       </c>
       <c r="J10">
+        <v>369857619.98000002</v>
+      </c>
+      <c r="K10">
         <v>57534873.82</v>
       </c>
-      <c r="K10">
-        <v>7487392.08</v>
-      </c>
       <c r="L10">
-        <v>28253162.26</v>
+        <v>7487392.0800000001</v>
       </c>
       <c r="M10">
-        <v>11774193.8</v>
+        <v>28253162.260000002</v>
       </c>
       <c r="N10">
-        <v>8037674.07</v>
+        <v>11774193.800000001</v>
       </c>
       <c r="O10">
-        <v>6076178.55</v>
+        <v>8037674.0700000003</v>
       </c>
       <c r="P10">
-        <v>10469500.39</v>
+        <v>6076178.5499999998</v>
       </c>
       <c r="Q10">
-        <v>13389353.11</v>
+        <v>10469500.390000001</v>
       </c>
       <c r="R10">
+        <v>13389353.109999999</v>
+      </c>
+      <c r="S10">
         <v>4371524.26</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>3951003.65</v>
       </c>
-      <c r="T10">
-        <v>6745848.52</v>
-      </c>
       <c r="U10">
-        <v>7128122.67</v>
+        <v>6745848.5199999996</v>
       </c>
       <c r="V10">
-        <v>12177952.21</v>
+        <v>7128122.6699999999</v>
       </c>
       <c r="W10">
-        <v>54805694.2</v>
+        <v>12177952.210000001</v>
       </c>
       <c r="X10">
-        <v>23173811.61</v>
+        <v>54805694.200000003</v>
       </c>
       <c r="Y10">
-        <v>80198959.12</v>
+        <v>23173811.609999999</v>
       </c>
       <c r="Z10">
-        <v>40853005.67</v>
+        <v>80198959.120000005</v>
       </c>
       <c r="AA10">
-        <v>95474198.48999999</v>
+        <v>40853005.670000002</v>
       </c>
       <c r="AB10">
-        <v>62337239.78</v>
+        <v>95474198.489999995</v>
       </c>
       <c r="AC10">
-        <v>142105977.42</v>
+        <v>62337239.780000001</v>
       </c>
       <c r="AD10">
-        <v>86382578.23</v>
+        <v>142105977.41999999</v>
       </c>
       <c r="AE10">
-        <v>295833980.9</v>
+        <v>86382578.230000004</v>
       </c>
       <c r="AF10">
-        <v>180042268.23</v>
+        <v>295833980.89999998</v>
       </c>
       <c r="AG10">
-        <v>372891774.76</v>
+        <v>180042268.22999999</v>
       </c>
       <c r="AH10">
+        <v>372891774.75999999</v>
+      </c>
+      <c r="AI10">
         <v>108042806.58</v>
       </c>
-      <c r="AI10">
-        <v>326826516.51</v>
-      </c>
       <c r="AJ10">
-        <v>201647206.83</v>
+        <v>326826516.50999999</v>
       </c>
       <c r="AK10">
-        <v>538372978.47</v>
+        <v>201647206.83000001</v>
       </c>
       <c r="AL10">
-        <v>31233051.13</v>
+        <v>538372978.47000003</v>
       </c>
       <c r="AM10">
-        <v>327051360.82</v>
+        <v>31233051.129999999</v>
       </c>
       <c r="AN10">
+        <v>327051360.81999999</v>
+      </c>
+      <c r="AO10">
         <v>172711751.38</v>
       </c>
-      <c r="AO10">
-        <v>607265717.86</v>
-      </c>
       <c r="AP10">
-        <v>308996289.99</v>
+        <v>607265717.86000001</v>
       </c>
       <c r="AQ10">
-        <v>749734181.65</v>
+        <v>308996289.99000001</v>
+      </c>
+      <c r="AR10">
+        <v>749734181.64999998</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11">
         <v>13.5608</v>
       </c>
-      <c r="C11">
-        <v>11.6728</v>
-      </c>
       <c r="D11">
-        <v>11.0042</v>
+        <v>11.672800000000001</v>
       </c>
       <c r="E11">
+        <v>11.004200000000001</v>
+      </c>
+      <c r="F11">
         <v>15.3803</v>
       </c>
-      <c r="F11">
-        <v>23.2658</v>
-      </c>
       <c r="G11">
-        <v>21.3024</v>
+        <v>23.265799999999999</v>
       </c>
       <c r="H11">
-        <v>21.4142</v>
+        <v>21.302399999999999</v>
       </c>
       <c r="I11">
-        <v>18.8755</v>
+        <v>21.414200000000001</v>
       </c>
       <c r="J11">
-        <v>12.5217</v>
+        <v>18.875499999999999</v>
       </c>
       <c r="K11">
-        <v>0.739</v>
+        <v>12.521699999999999</v>
       </c>
       <c r="L11">
-        <v>3.741</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="M11">
+        <v>3.7410000000000001</v>
+      </c>
+      <c r="N11">
         <v>0.83</v>
       </c>
-      <c r="N11">
-        <v>2.303</v>
-      </c>
       <c r="O11">
+        <v>2.3029999999999999</v>
+      </c>
+      <c r="P11">
         <v>0.5907</v>
       </c>
-      <c r="P11">
-        <v>1.432</v>
-      </c>
       <c r="Q11">
-        <v>0.9266</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="R11">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="S11">
         <v>1.3875</v>
       </c>
-      <c r="S11">
-        <v>0.4842</v>
-      </c>
       <c r="T11">
-        <v>1.0756</v>
+        <v>0.48420000000000002</v>
       </c>
       <c r="U11">
-        <v>0.6165</v>
+        <v>1.0755999999999999</v>
       </c>
       <c r="V11">
-        <v>2.8556</v>
+        <v>0.61650000000000005</v>
       </c>
       <c r="W11">
-        <v>4.986</v>
+        <v>2.8555999999999999</v>
       </c>
       <c r="X11">
-        <v>2.9715</v>
+        <v>4.9859999999999998</v>
       </c>
       <c r="Y11">
-        <v>5.4871</v>
+        <v>2.9714999999999998</v>
       </c>
       <c r="Z11">
-        <v>9.575699999999999</v>
+        <v>5.4870999999999999</v>
       </c>
       <c r="AA11">
-        <v>7.6794</v>
+        <v>9.5756999999999994</v>
       </c>
       <c r="AB11">
+        <v>7.6794000000000002</v>
+      </c>
+      <c r="AC11">
         <v>7.0911</v>
       </c>
-      <c r="AC11">
-        <v>8.6732</v>
-      </c>
       <c r="AD11">
-        <v>16.6029</v>
+        <v>8.6731999999999996</v>
       </c>
       <c r="AE11">
-        <v>18.6166</v>
+        <v>16.602900000000002</v>
       </c>
       <c r="AF11">
-        <v>17.6822</v>
+        <v>18.616599999999998</v>
       </c>
       <c r="AG11">
-        <v>16.8554</v>
+        <v>17.682200000000002</v>
       </c>
       <c r="AH11">
+        <v>16.855399999999999</v>
+      </c>
+      <c r="AI11">
         <v>15.4902</v>
       </c>
-      <c r="AI11">
-        <v>17.7292</v>
-      </c>
       <c r="AJ11">
+        <v>17.729199999999999</v>
+      </c>
+      <c r="AK11">
         <v>16.5212</v>
       </c>
-      <c r="AK11">
-        <v>20.315</v>
-      </c>
       <c r="AL11">
+        <v>20.315000000000001</v>
+      </c>
+      <c r="AM11">
         <v>7.7237</v>
       </c>
-      <c r="AM11">
-        <v>18.5465</v>
-      </c>
       <c r="AN11">
+        <v>18.546500000000002</v>
+      </c>
+      <c r="AO11">
         <v>16.8352</v>
       </c>
-      <c r="AO11">
-        <v>22.4608</v>
-      </c>
       <c r="AP11">
-        <v>30.0588</v>
+        <v>22.460799999999999</v>
       </c>
       <c r="AQ11">
+        <v>30.058800000000002</v>
+      </c>
+      <c r="AR11">
         <v>31.3536</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12">
-        <v>17.3009</v>
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
       </c>
       <c r="C12">
-        <v>57.447</v>
+        <v>17.300899999999999</v>
       </c>
       <c r="D12">
-        <v>49.1658</v>
+        <v>57.447000000000003</v>
       </c>
       <c r="E12">
-        <v>155.4108</v>
+        <v>49.165799999999997</v>
       </c>
       <c r="F12">
-        <v>206.3654</v>
+        <v>155.41079999999999</v>
       </c>
       <c r="G12">
-        <v>170.2633</v>
+        <v>206.36539999999999</v>
       </c>
       <c r="H12">
+        <v>170.26329999999999</v>
+      </c>
+      <c r="I12">
         <v>211.941</v>
       </c>
-      <c r="I12">
-        <v>89.4678</v>
-      </c>
       <c r="J12">
-        <v>-48.4842</v>
+        <v>89.467799999999997</v>
       </c>
       <c r="K12">
-        <v>-97.0583</v>
+        <v>-48.484200000000001</v>
       </c>
       <c r="L12">
-        <v>-84.8058</v>
+        <v>-97.058300000000003</v>
       </c>
       <c r="M12">
-        <v>-96.81659999999999</v>
+        <v>-84.805800000000005</v>
       </c>
       <c r="N12">
-        <v>-86.0299</v>
+        <v>-96.816599999999994</v>
       </c>
       <c r="O12">
-        <v>-18.8479</v>
+        <v>-86.029899999999998</v>
       </c>
       <c r="P12">
-        <v>-62.944</v>
+        <v>-18.847899999999999</v>
       </c>
       <c r="Q12">
+        <v>-62.944000000000003</v>
+      </c>
+      <c r="R12">
         <v>13.7178</v>
       </c>
-      <c r="R12">
-        <v>-45.6121</v>
-      </c>
       <c r="S12">
-        <v>-34.9755</v>
+        <v>-45.612099999999998</v>
       </c>
       <c r="T12">
-        <v>-35.5667</v>
+        <v>-34.975499999999997</v>
       </c>
       <c r="U12">
-        <v>-46.7628</v>
+        <v>-35.566699999999997</v>
       </c>
       <c r="V12">
+        <v>-46.762799999999999</v>
+      </c>
+      <c r="W12">
         <v>178.5745</v>
       </c>
-      <c r="W12">
-        <v>1287.1335</v>
-      </c>
       <c r="X12">
-        <v>243.527</v>
+        <v>1287.1334999999999</v>
       </c>
       <c r="Y12">
-        <v>1025.1063</v>
+        <v>243.52699999999999</v>
       </c>
       <c r="Z12">
-        <v>235.467</v>
+        <v>1025.1062999999999</v>
       </c>
       <c r="AA12">
-        <v>74.20489999999999</v>
+        <v>235.46700000000001</v>
       </c>
       <c r="AB12">
-        <v>168.9986</v>
+        <v>74.204899999999995</v>
       </c>
       <c r="AC12">
-        <v>77.1918</v>
+        <v>168.99860000000001</v>
       </c>
       <c r="AD12">
+        <v>77.191800000000001</v>
+      </c>
+      <c r="AE12">
         <v>111.4473</v>
       </c>
-      <c r="AE12">
-        <v>209.8575</v>
-      </c>
       <c r="AF12">
-        <v>188.8198</v>
+        <v>209.85749999999999</v>
       </c>
       <c r="AG12">
+        <v>188.81979999999999</v>
+      </c>
+      <c r="AH12">
         <v>162.404</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>25.0748</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>10.4763</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>11.9999</v>
       </c>
-      <c r="AK12">
-        <v>44.3778</v>
-      </c>
       <c r="AL12">
-        <v>-71.092</v>
+        <v>44.377800000000001</v>
       </c>
       <c r="AM12">
-        <v>0.0688</v>
+        <v>-71.091999999999999</v>
       </c>
       <c r="AN12">
-        <v>-14.3495</v>
+        <v>6.88E-2</v>
       </c>
       <c r="AO12">
+        <v>-14.349500000000001</v>
+      </c>
+      <c r="AP12">
         <v>12.7965</v>
       </c>
-      <c r="AP12">
-        <v>889.3247</v>
-      </c>
       <c r="AQ12">
-        <v>334.0956</v>
+        <v>889.32470000000001</v>
+      </c>
+      <c r="AR12">
+        <v>334.09559999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
         <v>-0.1143</v>
       </c>
-      <c r="C13">
-        <v>-1.1343</v>
-      </c>
       <c r="D13">
+        <v>-1.1343000000000001</v>
+      </c>
+      <c r="E13">
         <v>-0.9466</v>
       </c>
-      <c r="E13">
-        <v>-1.0155</v>
-      </c>
       <c r="F13">
-        <v>0.4061</v>
+        <v>-1.0155000000000001</v>
       </c>
       <c r="G13">
-        <v>1.2471</v>
+        <v>0.40610000000000002</v>
       </c>
       <c r="H13">
-        <v>0.8714</v>
+        <v>1.2471000000000001</v>
       </c>
       <c r="I13">
-        <v>1.189</v>
+        <v>0.87139999999999995</v>
       </c>
       <c r="J13">
-        <v>0.6548</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="K13">
-        <v>0.2993</v>
+        <v>0.65480000000000005</v>
       </c>
       <c r="L13">
-        <v>0.2315</v>
+        <v>0.29930000000000001</v>
       </c>
       <c r="M13">
-        <v>0.3087</v>
+        <v>0.23150000000000001</v>
       </c>
       <c r="N13">
-        <v>-0.1708</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="O13">
-        <v>-0.1823</v>
+        <v>-0.17080000000000001</v>
       </c>
       <c r="P13">
-        <v>-0.2687</v>
+        <v>-0.18229999999999999</v>
       </c>
       <c r="Q13">
-        <v>-0.4387</v>
+        <v>-0.26869999999999999</v>
       </c>
       <c r="R13">
+        <v>-0.43869999999999998</v>
+      </c>
+      <c r="S13">
         <v>0.2802</v>
       </c>
-      <c r="S13">
-        <v>0.0359</v>
-      </c>
       <c r="T13">
-        <v>0.0138</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="U13">
-        <v>0.3582</v>
+        <v>1.38E-2</v>
       </c>
       <c r="V13">
+        <v>0.35820000000000002</v>
+      </c>
+      <c r="W13">
         <v>0.1804</v>
       </c>
-      <c r="W13">
-        <v>0.1964</v>
-      </c>
       <c r="X13">
-        <v>0.0287</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="Y13">
-        <v>0.6827</v>
+        <v>2.87E-2</v>
       </c>
       <c r="Z13">
-        <v>0.2866</v>
+        <v>0.68269999999999997</v>
       </c>
       <c r="AA13">
+        <v>0.28660000000000002</v>
+      </c>
+      <c r="AB13">
         <v>0.9536</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>0.1258</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1.2617</v>
       </c>
-      <c r="AD13">
-        <v>0.7362</v>
-      </c>
       <c r="AE13">
-        <v>0.7576000000000001</v>
+        <v>0.73619999999999997</v>
       </c>
       <c r="AF13">
-        <v>0.4202</v>
+        <v>0.75760000000000005</v>
       </c>
       <c r="AG13">
-        <v>1.3139</v>
+        <v>0.42020000000000002</v>
       </c>
       <c r="AH13">
-        <v>-0.0324</v>
+        <v>1.3139000000000001</v>
       </c>
       <c r="AI13">
-        <v>0.7789</v>
+        <v>-3.2399999999999998E-2</v>
       </c>
       <c r="AJ13">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="AK13">
         <v>-0.4128</v>
       </c>
-      <c r="AK13">
-        <v>1.9831</v>
-      </c>
       <c r="AL13">
-        <v>-0.2206</v>
+        <v>1.9831000000000001</v>
       </c>
       <c r="AM13">
-        <v>1.0894</v>
+        <v>-0.22059999999999999</v>
       </c>
       <c r="AN13">
+        <v>1.0893999999999999</v>
+      </c>
+      <c r="AO13">
         <v>-0.1825</v>
       </c>
-      <c r="AO13">
-        <v>2.9662</v>
-      </c>
       <c r="AP13">
-        <v>1.1587</v>
+        <v>2.9662000000000002</v>
       </c>
       <c r="AQ13">
-        <v>2.594</v>
+        <v>1.1587000000000001</v>
+      </c>
+      <c r="AR13">
+        <v>2.5939999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14">
         <v>268821791.12</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>806803253.62</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>541698009.25</v>
       </c>
-      <c r="E14">
-        <v>1269215408.69</v>
-      </c>
       <c r="F14">
-        <v>480034037.48</v>
+        <v>1269215408.6900001</v>
       </c>
       <c r="G14">
-        <v>1194816985.93</v>
+        <v>480034037.48000002</v>
       </c>
       <c r="H14">
-        <v>868337496.72</v>
+        <v>1194816985.9300001</v>
       </c>
       <c r="I14">
+        <v>868337496.72000003</v>
+      </c>
+      <c r="J14">
         <v>1959461529.21</v>
       </c>
-      <c r="J14">
-        <v>459480937.41</v>
-      </c>
       <c r="K14">
+        <v>459480937.41000003</v>
+      </c>
+      <c r="L14">
         <v>1013212013.6</v>
       </c>
-      <c r="L14">
-        <v>755222634.95</v>
-      </c>
       <c r="M14">
+        <v>755222634.95000005</v>
+      </c>
+      <c r="N14">
         <v>1418591744.29</v>
       </c>
-      <c r="N14">
-        <v>349006731.42</v>
-      </c>
       <c r="O14">
+        <v>349006731.42000002</v>
+      </c>
+      <c r="P14">
         <v>1028725532.2</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>731114746.63</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1444983261.78</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>315064302.06</v>
       </c>
-      <c r="S14">
-        <v>815916905.58</v>
-      </c>
       <c r="T14">
-        <v>627196073.1</v>
+        <v>815916905.58000004</v>
       </c>
       <c r="U14">
-        <v>1156135059.43</v>
+        <v>627196073.10000002</v>
       </c>
       <c r="V14">
-        <v>426454651.79</v>
+        <v>1156135059.4300001</v>
       </c>
       <c r="W14">
+        <v>426454651.79000002</v>
+      </c>
+      <c r="X14">
         <v>1099194756.48</v>
       </c>
-      <c r="X14">
-        <v>779867983.59</v>
-      </c>
       <c r="Y14">
-        <v>1461582562.6</v>
+        <v>779867983.59000003</v>
       </c>
       <c r="Z14">
-        <v>426632116.57</v>
+        <v>1461582562.5999999</v>
       </c>
       <c r="AA14">
-        <v>1243243733.16</v>
+        <v>426632116.56999999</v>
       </c>
       <c r="AB14">
-        <v>879094024.9400001</v>
+        <v>1243243733.1600001</v>
       </c>
       <c r="AC14">
-        <v>1638440107.81</v>
+        <v>879094024.94000006</v>
       </c>
       <c r="AD14">
-        <v>520286481.72</v>
+        <v>1638440107.8099999</v>
       </c>
       <c r="AE14">
-        <v>1589088694.32</v>
+        <v>520286481.72000003</v>
       </c>
       <c r="AF14">
+        <v>1589088694.3199999</v>
+      </c>
+      <c r="AG14">
         <v>1018209725.39</v>
       </c>
-      <c r="AG14">
-        <v>2212299856.53</v>
-      </c>
       <c r="AH14">
-        <v>697491271.5700001</v>
+        <v>2212299856.5300002</v>
       </c>
       <c r="AI14">
-        <v>1843438172.34</v>
+        <v>697491271.57000005</v>
       </c>
       <c r="AJ14">
+        <v>1843438172.3399999</v>
+      </c>
+      <c r="AK14">
         <v>1220533393.03</v>
       </c>
-      <c r="AK14">
-        <v>2650122823.84</v>
-      </c>
       <c r="AL14">
-        <v>404379428.55</v>
+        <v>2650122823.8400002</v>
       </c>
       <c r="AM14">
-        <v>1763408486.66</v>
+        <v>404379428.55000001</v>
       </c>
       <c r="AN14">
+        <v>1763408486.6600001</v>
+      </c>
+      <c r="AO14">
         <v>1025899267.79</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>2703669822.21</v>
       </c>
-      <c r="AP14">
+      <c r="AQ14">
         <v>1027972855.77</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>2391219898.52</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
         <v>-14.1065</v>
       </c>
-      <c r="C15">
-        <v>24.1045</v>
-      </c>
       <c r="D15">
+        <v>24.104500000000002</v>
+      </c>
+      <c r="E15">
         <v>10.1868</v>
       </c>
-      <c r="E15">
-        <v>41.8749</v>
-      </c>
       <c r="F15">
-        <v>78.56959999999999</v>
+        <v>41.874899999999997</v>
       </c>
       <c r="G15">
-        <v>48.0927</v>
+        <v>78.569599999999994</v>
       </c>
       <c r="H15">
-        <v>60.2992</v>
+        <v>48.092700000000001</v>
       </c>
       <c r="I15">
-        <v>54.3837</v>
+        <v>60.299199999999999</v>
       </c>
       <c r="J15">
-        <v>-4.2816</v>
+        <v>54.383699999999997</v>
       </c>
       <c r="K15">
-        <v>-15.1994</v>
+        <v>-4.2816000000000001</v>
       </c>
       <c r="L15">
+        <v>-15.199400000000001</v>
+      </c>
+      <c r="M15">
         <v>-13.0266</v>
       </c>
-      <c r="M15">
-        <v>-27.603</v>
-      </c>
       <c r="N15">
-        <v>-24.0433</v>
+        <v>-27.603000000000002</v>
       </c>
       <c r="O15">
-        <v>1.5311</v>
+        <v>-24.043299999999999</v>
       </c>
       <c r="P15">
-        <v>-3.1922</v>
+        <v>1.5310999999999999</v>
       </c>
       <c r="Q15">
-        <v>1.8604</v>
+        <v>-3.1922000000000001</v>
       </c>
       <c r="R15">
-        <v>-9.7254</v>
+        <v>1.8604000000000001</v>
       </c>
       <c r="S15">
-        <v>-20.6866</v>
+        <v>-9.7254000000000005</v>
       </c>
       <c r="T15">
-        <v>-14.2137</v>
+        <v>-20.686599999999999</v>
       </c>
       <c r="U15">
-        <v>-19.9897</v>
+        <v>-14.213699999999999</v>
       </c>
       <c r="V15">
-        <v>35.3548</v>
+        <v>-19.989699999999999</v>
       </c>
       <c r="W15">
-        <v>34.719</v>
+        <v>35.354799999999997</v>
       </c>
       <c r="X15">
-        <v>24.342</v>
+        <v>34.719000000000001</v>
       </c>
       <c r="Y15">
-        <v>26.4197</v>
+        <v>24.341999999999999</v>
       </c>
       <c r="Z15">
-        <v>0.0416</v>
+        <v>26.419699999999999</v>
       </c>
       <c r="AA15">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="AB15">
         <v>13.105</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>12.7234</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>12.1004</v>
       </c>
-      <c r="AD15">
-        <v>21.952</v>
-      </c>
       <c r="AE15">
-        <v>27.818</v>
+        <v>21.952000000000002</v>
       </c>
       <c r="AF15">
+        <v>27.818000000000001</v>
+      </c>
+      <c r="AG15">
         <v>15.8249</v>
       </c>
-      <c r="AG15">
-        <v>35.0248</v>
-      </c>
       <c r="AH15">
-        <v>34.0591</v>
+        <v>35.024799999999999</v>
       </c>
       <c r="AI15">
+        <v>34.059100000000001</v>
+      </c>
+      <c r="AJ15">
         <v>16.006</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>19.8705</v>
       </c>
-      <c r="AK15">
-        <v>19.7904</v>
-      </c>
       <c r="AL15">
-        <v>-42.0237</v>
+        <v>19.790400000000002</v>
       </c>
       <c r="AM15">
-        <v>-4.3413</v>
+        <v>-42.023699999999998</v>
       </c>
       <c r="AN15">
+        <v>-4.3413000000000004</v>
+      </c>
+      <c r="AO15">
         <v>-15.9466</v>
       </c>
-      <c r="AO15">
-        <v>2.0205</v>
-      </c>
       <c r="AP15">
+        <v>2.0205000000000002</v>
+      </c>
+      <c r="AQ15">
         <v>154.21</v>
       </c>
-      <c r="AQ15">
-        <v>133.0853</v>
+      <c r="AR15">
+        <v>133.08529999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16">
         <v>3.4777</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>3.1976</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3.6412</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.7643</v>
       </c>
-      <c r="F16">
-        <v>4.2445</v>
-      </c>
       <c r="G16">
-        <v>4.9328</v>
+        <v>4.2445000000000004</v>
       </c>
       <c r="H16">
+        <v>4.9328000000000003</v>
+      </c>
+      <c r="I16">
         <v>5.5198</v>
       </c>
-      <c r="I16">
-        <v>4.1558</v>
-      </c>
       <c r="J16">
-        <v>2.8312</v>
+        <v>4.1558000000000002</v>
       </c>
       <c r="K16">
-        <v>2.1676</v>
+        <v>2.8311999999999999</v>
       </c>
       <c r="L16">
-        <v>2.0937</v>
+        <v>2.1676000000000002</v>
       </c>
       <c r="M16">
-        <v>2.2659</v>
+        <v>2.0937000000000001</v>
       </c>
       <c r="N16">
-        <v>1.6558</v>
+        <v>2.2658999999999998</v>
       </c>
       <c r="O16">
-        <v>2.1988</v>
+        <v>1.6557999999999999</v>
       </c>
       <c r="P16">
+        <v>2.1987999999999999</v>
+      </c>
+      <c r="Q16">
         <v>1.5626</v>
       </c>
-      <c r="Q16">
-        <v>2.8135</v>
-      </c>
       <c r="R16">
-        <v>2.961</v>
+        <v>2.8134999999999999</v>
       </c>
       <c r="S16">
-        <v>2.0049</v>
+        <v>2.9609999999999999</v>
       </c>
       <c r="T16">
-        <v>3.9104</v>
+        <v>2.0049000000000001</v>
       </c>
       <c r="U16">
-        <v>3.4889</v>
+        <v>3.9104000000000001</v>
       </c>
       <c r="V16">
-        <v>2.6306</v>
+        <v>3.4889000000000001</v>
       </c>
       <c r="W16">
-        <v>3.1678</v>
+        <v>2.6305999999999998</v>
       </c>
       <c r="X16">
-        <v>3.7476</v>
+        <v>3.1678000000000002</v>
       </c>
       <c r="Y16">
-        <v>3.2783</v>
+        <v>3.7475999999999998</v>
       </c>
       <c r="Z16">
-        <v>3.7206</v>
+        <v>3.2783000000000002</v>
       </c>
       <c r="AA16">
-        <v>5.4254</v>
+        <v>3.7206000000000001</v>
       </c>
       <c r="AB16">
-        <v>3.7978</v>
+        <v>5.4253999999999998</v>
       </c>
       <c r="AC16">
-        <v>6.336</v>
+        <v>3.7978000000000001</v>
       </c>
       <c r="AD16">
-        <v>4.698</v>
+        <v>6.3360000000000003</v>
       </c>
       <c r="AE16">
-        <v>3.8528</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="AF16">
-        <v>4.594</v>
+        <v>3.8527999999999998</v>
       </c>
       <c r="AG16">
-        <v>3.0593</v>
+        <v>4.5940000000000003</v>
       </c>
       <c r="AH16">
+        <v>3.0592999999999999</v>
+      </c>
+      <c r="AI16">
         <v>4.1307</v>
       </c>
-      <c r="AI16">
-        <v>3.7334</v>
-      </c>
       <c r="AJ16">
-        <v>3.4063</v>
+        <v>3.7334000000000001</v>
       </c>
       <c r="AK16">
-        <v>3.3254</v>
+        <v>3.4062999999999999</v>
       </c>
       <c r="AL16">
-        <v>2.4973</v>
+        <v>3.3254000000000001</v>
       </c>
       <c r="AM16">
-        <v>3.0338</v>
+        <v>2.4973000000000001</v>
       </c>
       <c r="AN16">
-        <v>3.8674</v>
+        <v>3.0337999999999998</v>
       </c>
       <c r="AO16">
-        <v>8.445399999999999</v>
+        <v>3.8673999999999999</v>
       </c>
       <c r="AP16">
-        <v>7.0492</v>
+        <v>8.4453999999999994</v>
       </c>
       <c r="AQ16">
-        <v>16.0256</v>
+        <v>7.0491999999999999</v>
+      </c>
+      <c r="AR16">
+        <v>16.025600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17">
-        <v>180.481</v>
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
       </c>
       <c r="C17">
-        <v>65.5086</v>
+        <v>180.48099999999999</v>
       </c>
       <c r="D17">
+        <v>65.508600000000001</v>
+      </c>
+      <c r="E17">
         <v>116.9213</v>
       </c>
-      <c r="E17">
-        <v>28.7368</v>
-      </c>
       <c r="F17">
-        <v>81.3651</v>
+        <v>28.736799999999999</v>
       </c>
       <c r="G17">
+        <v>81.365099999999998</v>
+      </c>
+      <c r="H17">
         <v>43.0824</v>
       </c>
-      <c r="H17">
-        <v>65.75369999999999</v>
-      </c>
       <c r="I17">
+        <v>65.753699999999995</v>
+      </c>
+      <c r="J17">
         <v>26.2745</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>117.8781</v>
       </c>
-      <c r="K17">
-        <v>646.8468</v>
-      </c>
       <c r="L17">
-        <v>175.2983</v>
+        <v>646.84680000000003</v>
       </c>
       <c r="M17">
-        <v>430.9456</v>
+        <v>175.29830000000001</v>
       </c>
       <c r="N17">
-        <v>463.4454</v>
+        <v>430.94560000000001</v>
       </c>
       <c r="O17">
-        <v>810.5556</v>
+        <v>463.44540000000001</v>
       </c>
       <c r="P17">
-        <v>336.129</v>
+        <v>810.55560000000003</v>
       </c>
       <c r="Q17">
-        <v>471.7884</v>
+        <v>336.12900000000002</v>
       </c>
       <c r="R17">
+        <v>471.78840000000002</v>
+      </c>
+      <c r="S17">
         <v>1519.2308</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1139.3162</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1305.5</v>
       </c>
-      <c r="U17">
-        <v>1100.9479</v>
-      </c>
       <c r="V17">
+        <v>1100.9478999999999</v>
+      </c>
+      <c r="W17">
         <v>487.8116</v>
       </c>
-      <c r="W17">
-        <v>132.9231</v>
-      </c>
       <c r="X17">
-        <v>367.3945</v>
+        <v>132.92310000000001</v>
       </c>
       <c r="Y17">
-        <v>95.0378</v>
+        <v>367.39449999999999</v>
       </c>
       <c r="Z17">
-        <v>215.5244</v>
+        <v>95.037800000000004</v>
       </c>
       <c r="AA17">
-        <v>138.0784</v>
+        <v>215.52440000000001</v>
       </c>
       <c r="AB17">
-        <v>143.9935</v>
+        <v>138.07839999999999</v>
       </c>
       <c r="AC17">
-        <v>110.7524</v>
+        <v>143.99350000000001</v>
       </c>
       <c r="AD17">
-        <v>139.5939</v>
+        <v>110.75239999999999</v>
       </c>
       <c r="AE17">
+        <v>139.59389999999999</v>
+      </c>
+      <c r="AF17">
         <v>31.8094</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>67.6096</v>
       </c>
-      <c r="AG17">
-        <v>20.6422</v>
-      </c>
       <c r="AH17">
+        <v>20.642199999999999</v>
+      </c>
+      <c r="AI17">
         <v>100.5308</v>
       </c>
-      <c r="AI17">
-        <v>32.2221</v>
-      </c>
       <c r="AJ17">
-        <v>45.4667</v>
+        <v>32.222099999999998</v>
       </c>
       <c r="AK17">
-        <v>18.7656</v>
+        <v>45.466700000000003</v>
       </c>
       <c r="AL17">
-        <v>245.6897</v>
+        <v>18.765599999999999</v>
       </c>
       <c r="AM17">
+        <v>245.68969999999999</v>
+      </c>
+      <c r="AN17">
         <v>30.6435</v>
       </c>
-      <c r="AN17">
-        <v>72.0468</v>
-      </c>
       <c r="AO17">
+        <v>72.046800000000005</v>
+      </c>
+      <c r="AP17">
         <v>49.7896</v>
       </c>
-      <c r="AP17">
-        <v>88.64109999999999</v>
-      </c>
       <c r="AQ17">
-        <v>90.61579999999999</v>
+        <v>88.641099999999994</v>
+      </c>
+      <c r="AR17">
+        <v>90.615799999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18">
         <v>13.5608</v>
       </c>
-      <c r="C18">
-        <v>11.6728</v>
-      </c>
       <c r="D18">
-        <v>11.0042</v>
+        <v>11.672800000000001</v>
       </c>
       <c r="E18">
+        <v>11.004200000000001</v>
+      </c>
+      <c r="F18">
         <v>15.3803</v>
       </c>
-      <c r="F18">
-        <v>23.2658</v>
-      </c>
       <c r="G18">
-        <v>21.3024</v>
+        <v>23.265799999999999</v>
       </c>
       <c r="H18">
-        <v>21.4142</v>
+        <v>21.302399999999999</v>
       </c>
       <c r="I18">
-        <v>18.8755</v>
+        <v>21.414200000000001</v>
       </c>
       <c r="J18">
-        <v>12.5217</v>
+        <v>18.875499999999999</v>
       </c>
       <c r="K18">
-        <v>0.739</v>
+        <v>12.521699999999999</v>
       </c>
       <c r="L18">
-        <v>3.741</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="M18">
+        <v>3.7410000000000001</v>
+      </c>
+      <c r="N18">
         <v>0.83</v>
       </c>
-      <c r="N18">
-        <v>2.303</v>
-      </c>
       <c r="O18">
+        <v>2.3029999999999999</v>
+      </c>
+      <c r="P18">
         <v>0.5907</v>
       </c>
-      <c r="P18">
-        <v>1.432</v>
-      </c>
       <c r="Q18">
-        <v>0.9266</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="R18">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="S18">
         <v>1.3875</v>
       </c>
-      <c r="S18">
-        <v>0.4842</v>
-      </c>
       <c r="T18">
-        <v>1.0756</v>
+        <v>0.48420000000000002</v>
       </c>
       <c r="U18">
-        <v>0.6165</v>
+        <v>1.0755999999999999</v>
       </c>
       <c r="V18">
-        <v>2.8556</v>
+        <v>0.61650000000000005</v>
       </c>
       <c r="W18">
-        <v>4.986</v>
+        <v>2.8555999999999999</v>
       </c>
       <c r="X18">
-        <v>2.9715</v>
+        <v>4.9859999999999998</v>
       </c>
       <c r="Y18">
-        <v>5.4871</v>
+        <v>2.9714999999999998</v>
       </c>
       <c r="Z18">
-        <v>9.575699999999999</v>
+        <v>5.4870999999999999</v>
       </c>
       <c r="AA18">
-        <v>7.6794</v>
+        <v>9.5756999999999994</v>
       </c>
       <c r="AB18">
+        <v>7.6794000000000002</v>
+      </c>
+      <c r="AC18">
         <v>7.0911</v>
       </c>
-      <c r="AC18">
-        <v>8.6732</v>
-      </c>
       <c r="AD18">
-        <v>16.6029</v>
+        <v>8.6731999999999996</v>
       </c>
       <c r="AE18">
-        <v>18.6166</v>
+        <v>16.602900000000002</v>
       </c>
       <c r="AF18">
-        <v>17.6822</v>
+        <v>18.616599999999998</v>
       </c>
       <c r="AG18">
-        <v>16.8554</v>
+        <v>17.682200000000002</v>
       </c>
       <c r="AH18">
+        <v>16.855399999999999</v>
+      </c>
+      <c r="AI18">
         <v>15.4902</v>
       </c>
-      <c r="AI18">
-        <v>17.7292</v>
-      </c>
       <c r="AJ18">
+        <v>17.729199999999999</v>
+      </c>
+      <c r="AK18">
         <v>16.5212</v>
       </c>
-      <c r="AK18">
-        <v>20.315</v>
-      </c>
       <c r="AL18">
+        <v>20.315000000000001</v>
+      </c>
+      <c r="AM18">
         <v>7.7237</v>
       </c>
-      <c r="AM18">
-        <v>18.5465</v>
-      </c>
       <c r="AN18">
+        <v>18.546500000000002</v>
+      </c>
+      <c r="AO18">
         <v>16.8352</v>
       </c>
-      <c r="AO18">
-        <v>22.4608</v>
-      </c>
       <c r="AP18">
-        <v>30.0588</v>
+        <v>22.460799999999999</v>
       </c>
       <c r="AQ18">
+        <v>30.058800000000002</v>
+      </c>
+      <c r="AR18">
         <v>31.3536</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19">
-        <v>1.6445</v>
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
       </c>
       <c r="C19">
+        <v>1.6445000000000001</v>
+      </c>
+      <c r="D19">
         <v>1.7556</v>
       </c>
-      <c r="D19">
-        <v>1.7131</v>
-      </c>
       <c r="E19">
-        <v>2.0348</v>
+        <v>1.7131000000000001</v>
       </c>
       <c r="F19">
-        <v>2.3659</v>
+        <v>2.0348000000000002</v>
       </c>
       <c r="G19">
-        <v>2.6094</v>
+        <v>2.3658999999999999</v>
       </c>
       <c r="H19">
-        <v>2.5861</v>
+        <v>2.6093999999999999</v>
       </c>
       <c r="I19">
+        <v>2.5861000000000001</v>
+      </c>
+      <c r="J19">
         <v>2.9192</v>
       </c>
-      <c r="J19">
-        <v>3.0897</v>
-      </c>
       <c r="K19">
+        <v>3.0897000000000001</v>
+      </c>
+      <c r="L19">
         <v>2.6113</v>
       </c>
-      <c r="L19">
-        <v>3.0029</v>
-      </c>
       <c r="M19">
-        <v>2.5394</v>
+        <v>3.0028999999999999</v>
       </c>
       <c r="N19">
-        <v>2.5632</v>
+        <v>2.5394000000000001</v>
       </c>
       <c r="O19">
-        <v>2.5374</v>
+        <v>2.5632000000000001</v>
       </c>
       <c r="P19">
-        <v>2.5704</v>
+        <v>2.5373999999999999</v>
       </c>
       <c r="Q19">
-        <v>2.5591</v>
+        <v>2.5703999999999998</v>
       </c>
       <c r="R19">
-        <v>2.572</v>
+        <v>2.5590999999999999</v>
       </c>
       <c r="S19">
-        <v>2.5508</v>
+        <v>2.5720000000000001</v>
       </c>
       <c r="T19">
-        <v>2.5791</v>
+        <v>2.5508000000000002</v>
       </c>
       <c r="U19">
+        <v>2.5790999999999999</v>
+      </c>
+      <c r="V19">
         <v>2.5602</v>
       </c>
-      <c r="V19">
-        <v>2.5963</v>
-      </c>
       <c r="W19">
-        <v>2.7127</v>
+        <v>2.5962999999999998</v>
       </c>
       <c r="X19">
-        <v>2.6289</v>
+        <v>2.7126999999999999</v>
       </c>
       <c r="Y19">
-        <v>2.788</v>
+        <v>2.6288999999999998</v>
       </c>
       <c r="Z19">
+        <v>2.7879999999999998</v>
+      </c>
+      <c r="AA19">
         <v>2.9091</v>
       </c>
-      <c r="AA19">
-        <v>2.9988</v>
-      </c>
       <c r="AB19">
-        <v>2.9008</v>
+        <v>2.9988000000000001</v>
       </c>
       <c r="AC19">
+        <v>2.9007999999999998</v>
+      </c>
+      <c r="AD19">
         <v>3.1414</v>
       </c>
-      <c r="AD19">
-        <v>3.3867</v>
-      </c>
       <c r="AE19">
-        <v>3.908</v>
+        <v>3.3866999999999998</v>
       </c>
       <c r="AF19">
-        <v>3.6331</v>
+        <v>3.9079999999999999</v>
       </c>
       <c r="AG19">
-        <v>4.1117</v>
+        <v>3.6331000000000002</v>
       </c>
       <c r="AH19">
-        <v>4.413</v>
+        <v>4.1116999999999999</v>
       </c>
       <c r="AI19">
-        <v>4.911</v>
+        <v>4.4130000000000003</v>
       </c>
       <c r="AJ19">
-        <v>4.5627</v>
+        <v>4.9109999999999996</v>
       </c>
       <c r="AK19">
-        <v>5.5295</v>
+        <v>4.5627000000000004</v>
       </c>
       <c r="AL19">
-        <v>5.6088</v>
+        <v>5.5294999999999996</v>
       </c>
       <c r="AM19">
+        <v>5.6087999999999996</v>
+      </c>
+      <c r="AN19">
         <v>6.2637</v>
       </c>
-      <c r="AN19">
-        <v>6.0172</v>
-      </c>
       <c r="AO19">
-        <v>7.0676</v>
+        <v>6.0171999999999999</v>
       </c>
       <c r="AP19">
+        <v>7.0675999999999997</v>
+      </c>
+      <c r="AQ19">
         <v>7.9657</v>
       </c>
-      <c r="AQ19">
-        <v>9.013</v>
+      <c r="AR19">
+        <v>9.0129999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
         <v>1.95</v>
       </c>
-      <c r="C20">
-        <v>4.98</v>
-      </c>
       <c r="D20">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="E20">
         <v>3.16</v>
       </c>
-      <c r="E20">
-        <v>10.05</v>
-      </c>
       <c r="F20">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="G20">
         <v>5.36</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>11.97</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>8.76</v>
       </c>
-      <c r="I20">
-        <v>16.94</v>
-      </c>
       <c r="J20">
-        <v>2.43</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="K20">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="L20">
         <v>0.33</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1.2</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.51</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.36</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.27</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.47</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.6</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.19</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.18</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.3</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.32</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.54</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>2.41</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1.03</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>3.51</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>1.74</v>
       </c>
-      <c r="AA20">
-        <v>4.02</v>
-      </c>
       <c r="AB20">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AC20">
         <v>2.66</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>5.99</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>3.28</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>11.09</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>6.04</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>12.87</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>3.91</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>11.36</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>7.12</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>18.07</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.87</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>9.81</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>5.24</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>17.36</v>
       </c>
-      <c r="AP20">
+      <c r="AQ20">
         <v>8.09</v>
       </c>
-      <c r="AQ20">
-        <v>18.58</v>
+      <c r="AR20">
+        <v>18.579999999999998</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>